--- a/data/trans_orig/IP16B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEA1FEEA-DEA1-4B22-8969-10A10EF92262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69CF8851-30A3-45C9-8A55-718210F67D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EA1A2D70-548D-431B-907D-AFE4589DA27D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A20BC364-A379-48F2-A273-4FC30465176E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>99,65%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
   </si>
   <si>
     <t>1,82%</t>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E0A7F8-931D-4795-939A-1FB21E308FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE1C5CD-6AC2-4661-B2A0-36AF521625CD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4797</v>
+        <v>1668</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +970,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>1114</v>
+        <v>4286</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -988,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>5911</v>
+        <v>5954</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>469</v>
+        <v>264</v>
       </c>
       <c r="D8" s="7">
-        <v>394948</v>
+        <v>199495</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1021,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>456</v>
+        <v>273</v>
       </c>
       <c r="I8" s="7">
-        <v>346110</v>
+        <v>192619</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1036,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>925</v>
+        <v>537</v>
       </c>
       <c r="N8" s="7">
-        <v>741058</v>
+        <v>392114</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>476</v>
+        <v>267</v>
       </c>
       <c r="D9" s="7">
-        <v>399745</v>
+        <v>201163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>458</v>
+        <v>279</v>
       </c>
       <c r="I9" s="7">
-        <v>347224</v>
+        <v>196905</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>934</v>
+        <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>746969</v>
+        <v>398068</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>1668</v>
+        <v>4797</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1125,10 +1125,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>4286</v>
+        <v>1114</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1143,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>5954</v>
+        <v>5911</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1161,10 +1161,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>264</v>
+        <v>469</v>
       </c>
       <c r="D11" s="7">
-        <v>199495</v>
+        <v>394948</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1176,10 +1176,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="I11" s="7">
-        <v>192619</v>
+        <v>346110</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1191,10 +1191,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>537</v>
+        <v>925</v>
       </c>
       <c r="N11" s="7">
-        <v>392114</v>
+        <v>741058</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1212,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>267</v>
+        <v>476</v>
       </c>
       <c r="D12" s="7">
-        <v>201163</v>
+        <v>399745</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1227,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>458</v>
       </c>
       <c r="I12" s="7">
-        <v>196905</v>
+        <v>347224</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1242,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>546</v>
+        <v>934</v>
       </c>
       <c r="N12" s="7">
-        <v>398068</v>
+        <v>746969</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP16B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69CF8851-30A3-45C9-8A55-718210F67D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4994AD7F-782C-4D41-9BA5-06C22097AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A20BC364-A379-48F2-A273-4FC30465176E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F83C247A-FF9B-4C16-AE43-96B30A52C5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Menores según si están vacunados de la triple vírica en 2023 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -65,232 +65,286 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +355,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,39 +451,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -481,7 +535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -592,13 +646,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -607,6 +654,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -671,19 +725,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE1C5CD-6AC2-4661-B2A0-36AF521625CD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C30829-895E-4D73-BF65-A9724212FF10}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -800,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7">
-        <v>6544</v>
+        <v>51563</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -815,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>5019</v>
+        <v>52050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -830,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="N4" s="7">
-        <v>11562</v>
+        <v>103613</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -851,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>108441</v>
+        <v>6180</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -866,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>96557</v>
+        <v>3783</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -881,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>393</v>
+        <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>204999</v>
+        <v>9963</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -902,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="D6" s="7">
-        <v>114985</v>
+        <v>57743</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -917,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="I6" s="7">
-        <v>101576</v>
+        <v>55833</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -932,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>418</v>
+        <v>220</v>
       </c>
       <c r="N6" s="7">
-        <v>216561</v>
+        <v>113576</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -955,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="D7" s="7">
-        <v>1668</v>
+        <v>170660</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="I7" s="7">
-        <v>4286</v>
+        <v>151190</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +1059,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>517</v>
       </c>
       <c r="N7" s="7">
-        <v>5954</v>
+        <v>321849</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>199495</v>
+        <v>1668</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1095,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>273</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>192619</v>
+        <v>5521</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1110,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>537</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>392114</v>
+        <v>7189</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D9" s="7">
-        <v>201163</v>
+        <v>172328</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1146,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="I9" s="7">
-        <v>196905</v>
+        <v>156711</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1161,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="N9" s="7">
-        <v>398068</v>
+        <v>329038</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="D10" s="7">
-        <v>4797</v>
+        <v>197230</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1125,10 +1199,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="I10" s="7">
-        <v>1114</v>
+        <v>175719</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1140,10 +1214,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>469</v>
       </c>
       <c r="N10" s="7">
-        <v>5911</v>
+        <v>372950</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1152,7 +1226,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,49 +1235,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>469</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>394948</v>
+        <v>2133</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>394</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>456</v>
-      </c>
-      <c r="I11" s="7">
-        <v>346110</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2526</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>925</v>
-      </c>
-      <c r="N11" s="7">
-        <v>741058</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>476</v>
+        <v>240</v>
       </c>
       <c r="D12" s="7">
-        <v>399745</v>
+        <v>199363</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>458</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>347224</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1316,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>934</v>
+        <v>473</v>
       </c>
       <c r="N12" s="7">
-        <v>746969</v>
+        <v>375476</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1259,55 +1333,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>334</v>
       </c>
       <c r="D13" s="7">
-        <v>13008</v>
+        <v>283430</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>337</v>
+      </c>
+      <c r="I13" s="7">
+        <v>256329</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10419</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="7">
+        <v>671</v>
+      </c>
+      <c r="N13" s="7">
+        <v>539759</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="7">
-        <v>43</v>
-      </c>
-      <c r="N13" s="7">
-        <v>23427</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>941</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>702885</v>
+        <v>3028</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>720</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>914</v>
-      </c>
-      <c r="I14" s="7">
-        <v>635286</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3748</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1338171</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,55 +1441,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>339</v>
+      </c>
+      <c r="D15" s="7">
+        <v>286458</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>338</v>
+      </c>
+      <c r="I15" s="7">
+        <v>257049</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>677</v>
+      </c>
+      <c r="N15" s="7">
+        <v>543507</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>941</v>
+      </c>
+      <c r="D16" s="7">
+        <v>702885</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>914</v>
+      </c>
+      <c r="I16" s="7">
+        <v>635286</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1855</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1338171</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>13008</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10419</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7">
+        <v>43</v>
+      </c>
+      <c r="N17" s="7">
+        <v>23427</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>966</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>715893</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>932</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>645705</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1898</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1361598</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4994AD7F-782C-4D41-9BA5-06C22097AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F75C394-AC5C-42C8-AFF8-BAF0AAC0FF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F83C247A-FF9B-4C16-AE43-96B30A52C5AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D86F324-7150-4168-A595-E6DCF968C68C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si están vacunados de la triple vírica en 2023 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>89,3%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>91,23%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>10,7%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>99,03%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>96,93%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -146,202 +146,208 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>96,08%</t>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -756,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C30829-895E-4D73-BF65-A9724212FF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8E2A8B-6B16-4933-B8D7-05799AEF5E13}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1226,7 +1232,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,13 +1247,13 @@
         <v>2133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1256,13 +1262,13 @@
         <v>394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -1271,13 +1277,13 @@
         <v>2526</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,7 +1339,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1345,13 +1351,13 @@
         <v>283430</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>337</v>
@@ -1360,10 +1366,10 @@
         <v>256329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>56</v>
@@ -1375,13 +1381,13 @@
         <v>539759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,13 +1402,13 @@
         <v>3028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1411,13 +1417,13 @@
         <v>720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1426,13 +1432,13 @@
         <v>3748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,13 +1506,13 @@
         <v>702885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>914</v>
@@ -1515,13 +1521,13 @@
         <v>635286</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>1855</v>
@@ -1530,13 +1536,13 @@
         <v>1338171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1557,13 @@
         <v>13008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -1566,13 +1572,13 @@
         <v>10419</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1581,13 +1587,13 @@
         <v>23427</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,7 +1649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F75C394-AC5C-42C8-AFF8-BAF0AAC0FF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3074774-A0FD-4E39-B1E1-12E24E4E5DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D86F324-7150-4168-A595-E6DCF968C68C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A8E21E4E-9CF5-41B1-BB4A-C3ECD3C83929}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
   <si>
     <t>Menores según si están vacunados de la triple vírica en 2023 (Tasa respuesta: 98,85%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,220 +134,202 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8E2A8B-6B16-4933-B8D7-05799AEF5E13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36578880-4BF8-4AEC-AFF5-95E35FDD9292}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -880,10 +862,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7">
-        <v>51563</v>
+        <v>52215</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,10 +877,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I4" s="7">
-        <v>52050</v>
+        <v>54363</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -913,7 +895,7 @@
         <v>198</v>
       </c>
       <c r="N4" s="7">
-        <v>103613</v>
+        <v>106577</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -931,10 +913,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>6180</v>
+        <v>3745</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -946,10 +928,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>3783</v>
+        <v>6305</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -964,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>9963</v>
+        <v>10050</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -982,25 +964,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55960</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>114</v>
       </c>
-      <c r="D6" s="7">
-        <v>57743</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>106</v>
-      </c>
       <c r="I6" s="7">
-        <v>55833</v>
+        <v>60668</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1015,7 +997,7 @@
         <v>220</v>
       </c>
       <c r="N6" s="7">
-        <v>113576</v>
+        <v>116627</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1035,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="D7" s="7">
-        <v>170660</v>
+        <v>151670</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1050,10 +1032,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="I7" s="7">
-        <v>151190</v>
+        <v>177047</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1068,7 +1050,7 @@
         <v>517</v>
       </c>
       <c r="N7" s="7">
-        <v>321849</v>
+        <v>328716</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1086,10 +1068,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>1668</v>
+        <v>5562</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1101,10 +1083,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>5521</v>
+        <v>1670</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1119,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>7189</v>
+        <v>7233</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1137,25 +1119,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>255</v>
+      </c>
+      <c r="D9" s="7">
+        <v>157232</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>273</v>
       </c>
-      <c r="D9" s="7">
-        <v>172328</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>255</v>
-      </c>
       <c r="I9" s="7">
-        <v>156711</v>
+        <v>178717</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1170,7 +1152,7 @@
         <v>528</v>
       </c>
       <c r="N9" s="7">
-        <v>329038</v>
+        <v>335949</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1190,10 +1172,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D10" s="7">
-        <v>197230</v>
+        <v>172693</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1205,10 +1187,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="I10" s="7">
-        <v>175719</v>
+        <v>206484</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1223,7 +1205,7 @@
         <v>469</v>
       </c>
       <c r="N10" s="7">
-        <v>372950</v>
+        <v>379179</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1241,10 +1223,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2133</v>
+        <v>379</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1256,10 +1238,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>394</v>
+        <v>2235</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1274,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2526</v>
+        <v>2613</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1292,25 +1274,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>240</v>
       </c>
-      <c r="D12" s="7">
-        <v>199363</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>208719</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1325,7 +1307,7 @@
         <v>473</v>
       </c>
       <c r="N12" s="7">
-        <v>375476</v>
+        <v>381792</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1345,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D13" s="7">
-        <v>283430</v>
+        <v>271076</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1357,37 +1339,37 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="7">
+        <v>334</v>
+      </c>
+      <c r="I13" s="7">
+        <v>299288</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>337</v>
-      </c>
-      <c r="I13" s="7">
-        <v>256329</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>671</v>
       </c>
       <c r="N13" s="7">
-        <v>539759</v>
+        <v>570363</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,49 +1378,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>692</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
-        <v>3028</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>3193</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>720</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>3748</v>
+        <v>3885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,25 +1429,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>338</v>
+      </c>
+      <c r="D15" s="7">
+        <v>271768</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>339</v>
       </c>
-      <c r="D15" s="7">
-        <v>286458</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>338</v>
-      </c>
       <c r="I15" s="7">
-        <v>257049</v>
+        <v>302481</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1480,7 +1462,7 @@
         <v>677</v>
       </c>
       <c r="N15" s="7">
-        <v>543507</v>
+        <v>574248</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1500,49 +1482,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>914</v>
+      </c>
+      <c r="D16" s="7">
+        <v>647654</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
         <v>941</v>
       </c>
-      <c r="D16" s="7">
-        <v>702885</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>737181</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>914</v>
-      </c>
-      <c r="I16" s="7">
-        <v>635286</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>1855</v>
       </c>
       <c r="N16" s="7">
-        <v>1338171</v>
+        <v>1384834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,49 +1533,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10378</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
-        <v>13008</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>18</v>
-      </c>
       <c r="I17" s="7">
-        <v>10419</v>
+        <v>13403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>23427</v>
+        <v>23782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,25 +1584,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>932</v>
+      </c>
+      <c r="D18" s="7">
+        <v>658032</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>966</v>
       </c>
-      <c r="D18" s="7">
-        <v>715893</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>932</v>
-      </c>
       <c r="I18" s="7">
-        <v>645705</v>
+        <v>750584</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1635,7 +1617,7 @@
         <v>1898</v>
       </c>
       <c r="N18" s="7">
-        <v>1361598</v>
+        <v>1408616</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1649,7 +1631,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
